--- a/GATEWAY/A1#111#AFFIDEAXX/AFFIDEA/AffideaHCIS-RAP/V.12.0/accreditamento-checklist_V8.2.6-RAP.xlsx
+++ b/GATEWAY/A1#111#AFFIDEAXX/AFFIDEA/AffideaHCIS-RAP/V.12.0/accreditamento-checklist_V8.2.6-RAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanuele.quarello\Desktop\Accreditamento RAP\test\Affidea\ID\v12.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B921B-EF8C-4389-ACA8-AAB264B65006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A916491-5736-4871-BB81-10661B319549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1731,15 +1731,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.fe7b213e24d3a2ed0b7ce124996be790630caaf38c5d03bce5abddad774d9686.a60b58bdae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>1ca971d14df047991f4be1eabb3d9e56</t>
-  </si>
-  <si>
-    <t>2025-06-12T10:37:45Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.5ef09e712cfc58f0e5f9ccbe38b470c5576e1850a5e22b2e64bb70c029d30b07.ec8a2e9e79^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2025-06-12T17:41:14Z</t>
   </si>
   <si>
@@ -1919,6 +1910,15 @@
 Firmato digitalmente il referto è inserito nel repository per la pubblicazione.
 Attualmente AffideaHCIS-RAP non pubblica direttamente il referto verso FSE. 
 AffideaHCIS-RAP è integrato con un altro software validato che si occupa della integrazioni regionali e pubblicazioni su FSE.</t>
+  </si>
+  <si>
+    <t>24d4b70c54b05c739d2bc7da4c633605</t>
+  </si>
+  <si>
+    <t>2025-07-10T15:29:37Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.f5f758be7287bf5fede6a41e41b685d87e0c5d843ddc41dadd3e5d1a39107c8e.78e30cbf0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2525,6 +2525,9 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2546,9 +2549,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4007,10 +4007,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P155" sqref="P155"/>
+      <selection pane="bottomRight" activeCell="K152" sqref="K152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4052,12 +4052,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="50"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4078,14 +4078,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="49"/>
+      <c r="D3" s="50"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4106,12 +4106,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="57" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4133,12 +4133,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58" t="s">
         <v>439</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="50"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4159,8 +4159,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9481,16 +9481,16 @@
         <v>292</v>
       </c>
       <c r="F149" s="37">
-        <v>45820</v>
+        <v>45848</v>
       </c>
       <c r="G149" s="37" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="H149" s="37" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="I149" s="42" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="J149" s="38" t="s">
         <v>64</v>
@@ -9531,13 +9531,13 @@
         <v>45820</v>
       </c>
       <c r="G150" s="37" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H150" s="37" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I150" s="42" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J150" s="38" t="s">
         <v>64</v>
@@ -9578,13 +9578,13 @@
         <v>45820</v>
       </c>
       <c r="G151" s="37" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H151" s="37" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I151" s="42" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J151" s="38" t="s">
         <v>64</v>
@@ -9598,7 +9598,7 @@
         <v>64</v>
       </c>
       <c r="O151" s="38" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P151" s="38" t="s">
         <v>64</v>
@@ -9610,7 +9610,7 @@
         <v>228</v>
       </c>
       <c r="S151" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T151" s="38"/>
       <c r="U151" s="39"/>
@@ -9639,13 +9639,13 @@
         <v>45820</v>
       </c>
       <c r="G152" s="37" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I152" s="42" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J152" s="38" t="s">
         <v>64</v>
@@ -9659,7 +9659,7 @@
         <v>64</v>
       </c>
       <c r="O152" s="38" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P152" s="38" t="s">
         <v>64</v>
@@ -9671,7 +9671,7 @@
         <v>228</v>
       </c>
       <c r="S152" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T152" s="38"/>
       <c r="U152" s="39"/>
@@ -9714,7 +9714,7 @@
         <v>64</v>
       </c>
       <c r="O153" s="38" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P153" s="38" t="s">
         <v>64</v>
@@ -9726,7 +9726,7 @@
         <v>228</v>
       </c>
       <c r="S153" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T153" s="38"/>
       <c r="U153" s="39"/>
@@ -9755,13 +9755,13 @@
         <v>45821</v>
       </c>
       <c r="G154" s="37" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H154" s="37" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I154" s="42" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J154" s="38" t="s">
         <v>64</v>
@@ -9775,7 +9775,7 @@
         <v>64</v>
       </c>
       <c r="O154" s="38" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="P154" s="38" t="s">
         <v>64</v>
@@ -9787,7 +9787,7 @@
         <v>228</v>
       </c>
       <c r="S154" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T154" s="38"/>
       <c r="U154" s="39"/>
@@ -9816,13 +9816,13 @@
         <v>45821</v>
       </c>
       <c r="G155" s="37" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H155" s="37" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I155" s="42" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J155" s="38" t="s">
         <v>64</v>
@@ -9835,8 +9835,8 @@
       <c r="N155" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O155" s="58" t="s">
-        <v>494</v>
+      <c r="O155" s="46" t="s">
+        <v>491</v>
       </c>
       <c r="P155" s="38" t="s">
         <v>64</v>
@@ -9848,7 +9848,7 @@
         <v>228</v>
       </c>
       <c r="S155" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T155" s="38"/>
       <c r="U155" s="39"/>
@@ -9877,13 +9877,13 @@
         <v>45821</v>
       </c>
       <c r="G156" s="37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H156" s="37" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I156" s="42" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J156" s="38" t="s">
         <v>64</v>
@@ -9896,8 +9896,8 @@
       <c r="N156" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O156" s="58" t="s">
-        <v>495</v>
+      <c r="O156" s="46" t="s">
+        <v>492</v>
       </c>
       <c r="P156" s="38" t="s">
         <v>64</v>
@@ -9909,7 +9909,7 @@
         <v>228</v>
       </c>
       <c r="S156" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T156" s="38"/>
       <c r="U156" s="39"/>
@@ -9938,13 +9938,13 @@
         <v>45821</v>
       </c>
       <c r="G157" s="37" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H157" s="37" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I157" s="42" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J157" s="38" t="s">
         <v>64</v>
@@ -9957,8 +9957,8 @@
       <c r="N157" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O157" s="58" t="s">
-        <v>496</v>
+      <c r="O157" s="46" t="s">
+        <v>493</v>
       </c>
       <c r="P157" s="38" t="s">
         <v>64</v>
@@ -9970,7 +9970,7 @@
         <v>228</v>
       </c>
       <c r="S157" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T157" s="38"/>
       <c r="U157" s="39"/>
@@ -9999,13 +9999,13 @@
         <v>45821</v>
       </c>
       <c r="G158" s="37" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H158" s="37" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I158" s="42" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J158" s="38" t="s">
         <v>64</v>
@@ -10018,8 +10018,8 @@
       <c r="N158" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O158" s="58" t="s">
-        <v>497</v>
+      <c r="O158" s="46" t="s">
+        <v>494</v>
       </c>
       <c r="P158" s="38" t="s">
         <v>64</v>
@@ -10031,7 +10031,7 @@
         <v>228</v>
       </c>
       <c r="S158" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T158" s="38"/>
       <c r="U158" s="39"/>
@@ -10060,13 +10060,13 @@
         <v>45821</v>
       </c>
       <c r="G159" s="37" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H159" s="37" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I159" s="42" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J159" s="38" t="s">
         <v>64</v>
@@ -10079,8 +10079,8 @@
       <c r="N159" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O159" s="58" t="s">
-        <v>498</v>
+      <c r="O159" s="46" t="s">
+        <v>495</v>
       </c>
       <c r="P159" s="38" t="s">
         <v>64</v>
@@ -10092,7 +10092,7 @@
         <v>228</v>
       </c>
       <c r="S159" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T159" s="38"/>
       <c r="U159" s="39"/>
@@ -10121,13 +10121,13 @@
         <v>45821</v>
       </c>
       <c r="G160" s="37" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H160" s="37" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I160" s="42" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J160" s="38" t="s">
         <v>64</v>
@@ -10140,8 +10140,8 @@
       <c r="N160" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O160" s="58" t="s">
-        <v>499</v>
+      <c r="O160" s="46" t="s">
+        <v>496</v>
       </c>
       <c r="P160" s="38" t="s">
         <v>64</v>
@@ -10153,7 +10153,7 @@
         <v>228</v>
       </c>
       <c r="S160" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T160" s="38"/>
       <c r="U160" s="39"/>
@@ -10182,13 +10182,13 @@
         <v>45821</v>
       </c>
       <c r="G161" s="37" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H161" s="37" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I161" s="42" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J161" s="38" t="s">
         <v>64</v>
@@ -10201,8 +10201,8 @@
       <c r="N161" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O161" s="58" t="s">
-        <v>500</v>
+      <c r="O161" s="46" t="s">
+        <v>497</v>
       </c>
       <c r="P161" s="38" t="s">
         <v>64</v>
@@ -10214,7 +10214,7 @@
         <v>228</v>
       </c>
       <c r="S161" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T161" s="38"/>
       <c r="U161" s="39"/>
@@ -10243,13 +10243,13 @@
         <v>45821</v>
       </c>
       <c r="G162" s="37" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H162" s="37" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I162" s="42" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J162" s="38" t="s">
         <v>64</v>
@@ -10262,8 +10262,8 @@
       <c r="N162" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O162" s="58" t="s">
-        <v>501</v>
+      <c r="O162" s="46" t="s">
+        <v>498</v>
       </c>
       <c r="P162" s="38" t="s">
         <v>64</v>
@@ -10275,7 +10275,7 @@
         <v>228</v>
       </c>
       <c r="S162" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T162" s="38"/>
       <c r="U162" s="39"/>
@@ -10304,13 +10304,13 @@
         <v>45821</v>
       </c>
       <c r="G163" s="37" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H163" s="37" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I163" s="42" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J163" s="38" t="s">
         <v>64</v>
@@ -10323,8 +10323,8 @@
       <c r="N163" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O163" s="58" t="s">
-        <v>502</v>
+      <c r="O163" s="46" t="s">
+        <v>499</v>
       </c>
       <c r="P163" s="38" t="s">
         <v>64</v>
@@ -10336,7 +10336,7 @@
         <v>228</v>
       </c>
       <c r="S163" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T163" s="38"/>
       <c r="U163" s="39"/>
@@ -10846,13 +10846,13 @@
         <v>45820</v>
       </c>
       <c r="G177" s="37" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H177" s="37" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I177" s="42" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J177" s="38" t="s">
         <v>64</v>
@@ -11226,13 +11226,13 @@
         <v>45821</v>
       </c>
       <c r="G187" s="35" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H187" s="38" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I187" s="38" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J187" s="38" t="s">
         <v>64</v>
@@ -11245,8 +11245,8 @@
       <c r="N187" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O187" s="58" t="s">
-        <v>503</v>
+      <c r="O187" s="46" t="s">
+        <v>500</v>
       </c>
       <c r="P187" s="38" t="s">
         <v>64</v>
@@ -11258,7 +11258,7 @@
         <v>228</v>
       </c>
       <c r="S187" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="T187" s="38"/>
       <c r="U187" s="35"/>
@@ -17771,27 +17771,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18049,32 +18028,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18093,6 +18068,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
